--- a/invoice_details.xlsx
+++ b/invoice_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Invoice Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4C8535-2D2A-4090-A710-8C3D7B964C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44317488-C614-436A-96D9-9071188FF6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
-  <si>
-    <t>Invoice ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="141">
   <si>
     <t>Client Name</t>
   </si>
@@ -81,27 +78,9 @@
     <t>The Burrow, Ottery St. Catchpole, England</t>
   </si>
   <si>
-    <t>INV002</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
-    <t>taylor.swift@taylornation.com</t>
-  </si>
-  <si>
-    <t>Evermore Vinyl Record</t>
-  </si>
-  <si>
     <t>Bank Transfer</t>
   </si>
   <si>
-    <t>1989 Beverly Hills, California</t>
-  </si>
-  <si>
-    <t>Swift Mansion, Nashville, Tennessee</t>
-  </si>
-  <si>
     <t>INV003</t>
   </si>
   <si>
@@ -168,50 +147,314 @@
     <t>INV008</t>
   </si>
   <si>
-    <t>James Potter</t>
-  </si>
-  <si>
-    <t>james.potter@hogwarts.edu</t>
-  </si>
-  <si>
-    <t>Marauder's Map</t>
-  </si>
-  <si>
-    <t>Godric's Hollow, West Country, England</t>
-  </si>
-  <si>
     <t>INV009</t>
   </si>
   <si>
-    <t>Lily Potter</t>
-  </si>
-  <si>
-    <t>lily.potter@hogwarts.edu</t>
-  </si>
-  <si>
-    <t>Charmed Mirror</t>
-  </si>
-  <si>
     <t>INV010</t>
   </si>
   <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Dark Mark Pendant</t>
+  </si>
+  <si>
+    <t>Slytherin Tie</t>
+  </si>
+  <si>
+    <t>Slytherin Quidditch Jersey</t>
+  </si>
+  <si>
+    <t>Dobby</t>
+  </si>
+  <si>
+    <t>dobby.houseelf@hogwarts.edu</t>
+  </si>
+  <si>
+    <t>Free Elf T-shirt</t>
+  </si>
+  <si>
+    <t>2 Diagon Alley, London, England</t>
+  </si>
+  <si>
+    <t>Socks (10-pack)</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>albus.dumbledore@hogwarts.edu</t>
+  </si>
+  <si>
+    <t>Elder Wand</t>
+  </si>
+  <si>
+    <t>Hogwarts Castle, Scotland</t>
+  </si>
+  <si>
+    <t>Severus Snape</t>
+  </si>
+  <si>
+    <t>severus.snape@hogwarts.edu</t>
+  </si>
+  <si>
+    <t>Potions Ingredients</t>
+  </si>
+  <si>
+    <t>Dark Arts Book</t>
+  </si>
+  <si>
+    <t>Potion Brewing Kit</t>
+  </si>
+  <si>
+    <t>Minerva McGonagall</t>
+  </si>
+  <si>
+    <t>minerva.mcgonagall@hogwarts.edu</t>
+  </si>
+  <si>
+    <t>Transfiguration Textbook</t>
+  </si>
+  <si>
+    <t>6 Hogwarts Road, Scotland</t>
+  </si>
+  <si>
+    <t>INV011</t>
+  </si>
+  <si>
+    <t>Neville Longbottom</t>
+  </si>
+  <si>
+    <t>neville.longbottom@hogwarts.edu</t>
+  </si>
+  <si>
+    <t>Remembrall</t>
+  </si>
+  <si>
+    <t>Longbottom House, Yorkshire, England</t>
+  </si>
+  <si>
+    <t>Greenhouse #3, Hogwarts, Scotland</t>
+  </si>
+  <si>
+    <t>Herbology Kit</t>
+  </si>
+  <si>
+    <t>INV012</t>
+  </si>
+  <si>
     <t>Ginny Weasley</t>
   </si>
   <si>
     <t>ginny.weasley@hogwarts.edu</t>
   </si>
   <si>
-    <t>Quaffle</t>
+    <t>Bat-Bogey Hex Practice Wand</t>
+  </si>
+  <si>
+    <t>The Burrow, Ottery St. Catchpole, Devon</t>
+  </si>
+  <si>
+    <t>Holyhead Harpies Locker Room, Wales</t>
+  </si>
+  <si>
+    <t>Quidditch Helmet</t>
+  </si>
+  <si>
+    <t>INV013</t>
+  </si>
+  <si>
+    <t>Fred Weasley</t>
+  </si>
+  <si>
+    <t>fred.weasley@weasleywheezes.co.uk</t>
+  </si>
+  <si>
+    <t>Skiving Snackbox</t>
+  </si>
+  <si>
+    <t>Owl Order</t>
+  </si>
+  <si>
+    <t>93 Diagon Alley, London, England</t>
+  </si>
+  <si>
+    <t>Zonko's Joke Shop, Hogsmeade, Scotland</t>
+  </si>
+  <si>
+    <t>Extendable Ear</t>
+  </si>
+  <si>
+    <t>INV014</t>
+  </si>
+  <si>
+    <t>Sirius Black</t>
+  </si>
+  <si>
+    <t>sirius.black@orderphoenix.uk</t>
+  </si>
+  <si>
+    <t>Enchanted Mirror</t>
+  </si>
+  <si>
+    <t>Room of Requirement, Hogwarts, Scotland</t>
+  </si>
+  <si>
+    <t>Magical Motorbike Accessory</t>
+  </si>
+  <si>
+    <t>Hogsmeade Garage, Scotland</t>
+  </si>
+  <si>
+    <t>INV015</t>
+  </si>
+  <si>
+    <t>Bellatrix Lestrange</t>
+  </si>
+  <si>
+    <t>bellatrix.lestrange@azkaban.uk</t>
+  </si>
+  <si>
+    <t>Cursed Dagger</t>
+  </si>
+  <si>
+    <t>Vault Transfer</t>
+  </si>
+  <si>
+    <t>Black Manor, London, England</t>
+  </si>
+  <si>
+    <t>Knockturn Alley, London, England</t>
+  </si>
+  <si>
+    <t>INV016</t>
+  </si>
+  <si>
+    <t>Remus Lupin</t>
+  </si>
+  <si>
+    <t>remus.lupin@orderphoenix.uk</t>
+  </si>
+  <si>
+    <t>Wolfsbane Potion Pack</t>
+  </si>
+  <si>
+    <t>17 Werewolf Lane, Yorkshire, England</t>
+  </si>
+  <si>
+    <t>Hospital Wing, Hogwarts, Scotland</t>
+  </si>
+  <si>
+    <t>INV017</t>
+  </si>
+  <si>
+    <t>Nymphadora Tonks</t>
+  </si>
+  <si>
+    <t>tonks@auroroffice.uk</t>
+  </si>
+  <si>
+    <t>Metamorphmagus Toolkit</t>
+  </si>
+  <si>
+    <t>Ministry A/C</t>
+  </si>
+  <si>
+    <t>Auror Department, Ministry of Magic, London</t>
+  </si>
+  <si>
+    <t>Field Office, Hogsmeade, Scotland</t>
+  </si>
+  <si>
+    <t>Color-Changing Hair Dye</t>
+  </si>
+  <si>
+    <t>INV018</t>
+  </si>
+  <si>
+    <t>Cho Chang</t>
+  </si>
+  <si>
+    <t>cho.chang@ravenclaw.uk</t>
+  </si>
+  <si>
+    <t>Charms Scroll Pack</t>
+  </si>
+  <si>
+    <t>Ravenclaw Tower, Hogwarts, Scotland</t>
+  </si>
+  <si>
+    <t>Owlery, Hogwarts, Scotland</t>
+  </si>
+  <si>
+    <t>INV019</t>
+  </si>
+  <si>
+    <t>Arthur Weasley</t>
+  </si>
+  <si>
+    <t>arthur.weasley@ministrymagic.uk</t>
+  </si>
+  <si>
+    <t>Muggle Artifacts Set</t>
+  </si>
+  <si>
+    <t>Misuse of Muggle Artefacts Office, MoM, London</t>
+  </si>
+  <si>
+    <t>Shed, The Burrow, Devon</t>
+  </si>
+  <si>
+    <t>INV020</t>
+  </si>
+  <si>
+    <t>Tom Riddle</t>
+  </si>
+  <si>
+    <t>lord.voldemort@darkarts.uk</t>
+  </si>
+  <si>
+    <t>Horcrux Container</t>
+  </si>
+  <si>
+    <t>Gringotts Vault</t>
+  </si>
+  <si>
+    <t>Chamber of Secrets, Hogwarts, Scotland</t>
+  </si>
+  <si>
+    <t>Riddle Manor, Little Hangleton, England</t>
+  </si>
+  <si>
+    <t>Basilisk Venom Vial</t>
+  </si>
+  <si>
+    <t>Dark Mark Branding Kit</t>
+  </si>
+  <si>
+    <t>Elder Wand Replica</t>
+  </si>
+  <si>
+    <t>Forbidden Forest, Hogwarts Grounds, Scotland</t>
+  </si>
+  <si>
+    <t>Parseltongue Dictionary</t>
+  </si>
+  <si>
+    <t>Little Hangleton Graveyard, England</t>
+  </si>
+  <si>
+    <t>Nagini Care Kit</t>
+  </si>
+  <si>
+    <t>Dark Forest Cavern, Albania</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,8 +463,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,16 +498,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,134 +810,134 @@
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="3"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
     <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="5">
+        <v>45775</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45805</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45775</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45805</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>500</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45775</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45805</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>200</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="5">
         <v>45775</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="5">
         <v>45805</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1">
-        <v>45775</v>
-      </c>
-      <c r="E4" s="1">
-        <v>45805</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -683,262 +945,1246 @@
       <c r="H4" s="3">
         <v>1000</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5">
         <v>45775</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>45805</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3">
         <v>750</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="K5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5">
         <v>45775</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <v>45805</v>
       </c>
-      <c r="F6" t="s">
-        <v>37</v>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="3">
+        <v>750</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45775</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45805</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
         <v>150</v>
       </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45775</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45805</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>30</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="J8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5">
         <v>45775</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E9" s="5">
         <v>45805</v>
       </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="F9" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
-        <v>45775</v>
-      </c>
-      <c r="E8" s="1">
-        <v>45805</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3">
-        <v>200</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1">
-        <v>45775</v>
-      </c>
-      <c r="E9" s="1">
-        <v>45805</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" s="3">
-        <v>400</v>
-      </c>
-      <c r="I9" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J9" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45775</v>
+      </c>
+      <c r="E10" s="5">
+        <v>45805</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
         <v>50</v>
       </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="I10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5">
         <v>45775</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="5">
         <v>45805</v>
       </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="1">
-        <v>45775</v>
-      </c>
-      <c r="E11" s="1">
-        <v>45805</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
       <c r="H11" s="3">
+        <v>350</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5">
+        <v>45778</v>
+      </c>
+      <c r="E12" s="5">
+        <v>45809</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>20</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5">
+        <v>45778</v>
+      </c>
+      <c r="E13" s="5">
+        <v>45809</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5">
+        <v>45792</v>
+      </c>
+      <c r="E14" s="5">
+        <v>45823</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="5">
+        <v>45797</v>
+      </c>
+      <c r="E15" s="5">
+        <v>45828</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3">
+        <v>120</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="5">
+        <v>45797</v>
+      </c>
+      <c r="E16" s="5">
+        <v>45828</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>500</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45797</v>
+      </c>
+      <c r="E17" s="5">
+        <v>45828</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5">
+        <v>45802</v>
+      </c>
+      <c r="E18" s="5">
+        <v>45833</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
+        <v>80</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="5">
+        <v>45782</v>
+      </c>
+      <c r="E19" s="5">
+        <v>45813</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>75</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="5">
+        <v>45782</v>
+      </c>
+      <c r="E20" s="5">
+        <v>45813</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3">
         <v>150</v>
       </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="5">
+        <v>45784</v>
+      </c>
+      <c r="E21" s="5">
+        <v>45815</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>90</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K11" t="s">
-        <v>16</v>
+      <c r="J21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="5">
+        <v>45784</v>
+      </c>
+      <c r="E22" s="5">
+        <v>45815</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>120</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="5">
+        <v>45785</v>
+      </c>
+      <c r="E23" s="5">
+        <v>45816</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>30</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="5">
+        <v>45785</v>
+      </c>
+      <c r="E24" s="5">
+        <v>45816</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>20</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="5">
+        <v>45786</v>
+      </c>
+      <c r="E25" s="5">
+        <v>45817</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>600</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="5">
+        <v>45786</v>
+      </c>
+      <c r="E26" s="5">
+        <v>45817</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3">
+        <v>200</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="5">
+        <v>45787</v>
+      </c>
+      <c r="E27" s="5">
+        <v>45818</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="5">
+        <v>45788</v>
+      </c>
+      <c r="E28" s="5">
+        <v>45819</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="3">
+        <v>7</v>
+      </c>
+      <c r="H28" s="3">
+        <v>100</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="5">
+        <v>45789</v>
+      </c>
+      <c r="E29" s="5">
+        <v>45820</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>500</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="5">
+        <v>45789</v>
+      </c>
+      <c r="E30" s="5">
+        <v>45820</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5</v>
+      </c>
+      <c r="H30" s="3">
+        <v>50</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="5">
+        <v>45790</v>
+      </c>
+      <c r="E31" s="5">
+        <v>45821</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="3">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3">
+        <v>25</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="5">
+        <v>45790</v>
+      </c>
+      <c r="E32" s="5">
+        <v>45821</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="3">
+        <v>6</v>
+      </c>
+      <c r="H32" s="3">
+        <v>60</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="5">
+        <v>45791</v>
+      </c>
+      <c r="E33" s="5">
+        <v>45822</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="5">
+        <v>45791</v>
+      </c>
+      <c r="E34" s="5">
+        <v>45822</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3">
+        <v>800</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="5">
+        <v>45791</v>
+      </c>
+      <c r="E35" s="5">
+        <v>45822</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>300</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="5">
+        <v>45791</v>
+      </c>
+      <c r="E36" s="5">
+        <v>45822</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="5">
+        <v>45791</v>
+      </c>
+      <c r="E37" s="5">
+        <v>45822</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3</v>
+      </c>
+      <c r="H37" s="3">
+        <v>120</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="5">
+        <v>45791</v>
+      </c>
+      <c r="E38" s="5">
+        <v>45822</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2</v>
+      </c>
+      <c r="H38" s="3">
+        <v>250</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:hermione.granger@hogwarts.edu" xr:uid="{1D6518A9-FF28-4086-9CDB-A35DE3F5AF49}"/>
+    <hyperlink ref="C3" r:id="rId2" display="mailto:hermione.granger@hogwarts.edu" xr:uid="{93DEC714-35A4-473A-811C-45C216466235}"/>
+    <hyperlink ref="C4" r:id="rId3" display="mailto:harry.potter@hogwarts.edu" xr:uid="{2CD7340D-0F37-4D5F-A9A2-BAE403B5C675}"/>
+    <hyperlink ref="C5" r:id="rId4" display="mailto:harry.potter@hogwarts.edu" xr:uid="{4FFA56CE-6CEB-4894-8FEE-AF9CC6CEAB9E}"/>
+    <hyperlink ref="C6" r:id="rId5" display="mailto:ron.weasley@hogwarts.edu" xr:uid="{B3C5CE06-0198-469E-9924-B66CC098A8B4}"/>
+    <hyperlink ref="C7" r:id="rId6" display="mailto:luna.lovegood@hogwarts.edu" xr:uid="{AE0B72ED-477C-4177-A75B-A505B4525794}"/>
+    <hyperlink ref="C8" r:id="rId7" display="mailto:draco.malfoy@hogwarts.edu" xr:uid="{7318B3D5-A725-46FC-9E75-57170B418238}"/>
+    <hyperlink ref="C9" r:id="rId8" display="mailto:draco.malfoy@hogwarts.edu" xr:uid="{A7D40367-99A1-49E1-A266-0F5428884925}"/>
+    <hyperlink ref="C10" r:id="rId9" display="mailto:draco.malfoy@hogwarts.edu" xr:uid="{DE0D7B7A-CDD7-476F-9EDE-C28F54FEA3B5}"/>
+    <hyperlink ref="C11" r:id="rId10" display="mailto:draco.malfoy@hogwarts.edu" xr:uid="{A244B6B2-6FFB-4156-A8DF-259E16AE2DC9}"/>
+    <hyperlink ref="C12" r:id="rId11" display="mailto:dobby.houseelf@hogwarts.edu" xr:uid="{EE22D690-A2E6-445E-8693-385FE4F27721}"/>
+    <hyperlink ref="C13" r:id="rId12" display="mailto:dobby.houseelf@hogwarts.edu" xr:uid="{5E157360-51E8-4525-BE73-87A10D84B923}"/>
+    <hyperlink ref="C14" r:id="rId13" display="mailto:albus.dumbledore@hogwarts.edu" xr:uid="{A807F8BE-885E-4CEE-A8F2-80ED58E9BA2C}"/>
+    <hyperlink ref="C15" r:id="rId14" display="mailto:severus.snape@hogwarts.edu" xr:uid="{B2F3C220-9C21-4911-B8A4-A8B4FA450B3C}"/>
+    <hyperlink ref="C16" r:id="rId15" display="mailto:severus.snape@hogwarts.edu" xr:uid="{1E7648CB-2605-43CD-9D1F-B65CAC3FE9E8}"/>
+    <hyperlink ref="C17" r:id="rId16" display="mailto:severus.snape@hogwarts.edu" xr:uid="{D21E9503-F15C-40AD-8E81-4808B97867CD}"/>
+    <hyperlink ref="C18" r:id="rId17" display="mailto:minerva.mcgonagall@hogwarts.edu" xr:uid="{3A2C4D92-EA65-4E06-9703-990DB0CEB3C4}"/>
+    <hyperlink ref="C19" r:id="rId18" display="mailto:neville.longbottom@hogwarts.edu" xr:uid="{520B80CC-E05C-4485-A0C9-3472C01F2001}"/>
+    <hyperlink ref="C20" r:id="rId19" display="mailto:neville.longbottom@hogwarts.edu" xr:uid="{594AD570-D9DA-4E14-9473-D50495E4638A}"/>
+    <hyperlink ref="C21" r:id="rId20" display="mailto:ginny.weasley@hogwarts.edu" xr:uid="{B6C4F2D2-F186-43EE-B404-4A5CDB2167CB}"/>
+    <hyperlink ref="C22" r:id="rId21" display="mailto:ginny.weasley@hogwarts.edu" xr:uid="{E99D4013-6344-4ABE-9421-5912E3FA15BD}"/>
+    <hyperlink ref="C23" r:id="rId22" display="mailto:fred.weasley@weasleywheezes.co.uk" xr:uid="{704C7D62-CF90-4A77-9176-B684C46C42D3}"/>
+    <hyperlink ref="C24" r:id="rId23" display="mailto:fred.weasley@weasleywheezes.co.uk" xr:uid="{08812F8B-88A9-4DC5-BE0D-7415C086EA5B}"/>
+    <hyperlink ref="C25" r:id="rId24" display="mailto:sirius.black@orderphoenix.uk" xr:uid="{C06A3474-1BED-4EFE-A052-45EE83159FC4}"/>
+    <hyperlink ref="C26" r:id="rId25" display="mailto:sirius.black@orderphoenix.uk" xr:uid="{EE141BE4-375D-4748-A395-0F34982077B9}"/>
+    <hyperlink ref="C27" r:id="rId26" display="mailto:bellatrix.lestrange@azkaban.uk" xr:uid="{75F2C270-8D7F-4DDA-B6FA-95F4343FBA8E}"/>
+    <hyperlink ref="C28" r:id="rId27" display="mailto:remus.lupin@orderphoenix.uk" xr:uid="{13F46C83-DD71-421B-976F-CDCDD0D998AE}"/>
+    <hyperlink ref="C29" r:id="rId28" display="mailto:tonks@auroroffice.uk" xr:uid="{9BBE99C4-9787-41A9-970D-D63FD29FC735}"/>
+    <hyperlink ref="C30" r:id="rId29" display="mailto:tonks@auroroffice.uk" xr:uid="{C9FA72C8-4FE2-4290-B054-C29291794863}"/>
+    <hyperlink ref="C31" r:id="rId30" display="mailto:cho.chang@ravenclaw.uk" xr:uid="{4BF9A690-A111-4FCC-A5DF-3E9AE56981E8}"/>
+    <hyperlink ref="C32" r:id="rId31" display="mailto:arthur.weasley@ministrymagic.uk" xr:uid="{AD8A5BE0-B670-40FA-B9B0-DFA17A0DEA97}"/>
+    <hyperlink ref="C33" r:id="rId32" display="mailto:lord.voldemort@darkarts.uk" xr:uid="{C118451D-3F76-49C1-B202-54E4FC76F657}"/>
+    <hyperlink ref="C34" r:id="rId33" display="mailto:lord.voldemort@darkarts.uk" xr:uid="{63850EA1-5CC8-4BB0-AFC9-B1BDABC357D7}"/>
+    <hyperlink ref="C35" r:id="rId34" display="mailto:lord.voldemort@darkarts.uk" xr:uid="{DAFF33EC-39A1-4211-88FB-71899AB8742A}"/>
+    <hyperlink ref="C36" r:id="rId35" display="mailto:lord.voldemort@darkarts.uk" xr:uid="{051A2397-A182-4C42-B326-06D588E3F84A}"/>
+    <hyperlink ref="C37" r:id="rId36" display="mailto:lord.voldemort@darkarts.uk" xr:uid="{FAEC4A92-5C74-4FAA-9C29-23E278F7A691}"/>
+    <hyperlink ref="C38" r:id="rId37" display="mailto:lord.voldemort@darkarts.uk" xr:uid="{60B2D582-4D94-4EEC-8BA7-A75E67D1DC48}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/invoice_details.xlsx
+++ b/invoice_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\Invoice Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44317488-C614-436A-96D9-9071188FF6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7207D47-39E1-4B57-8DC1-AB624583A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="138">
   <si>
     <t>Client Name</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Magical Motorbike Accessory</t>
   </si>
   <si>
-    <t>Hogsmeade Garage, Scotland</t>
-  </si>
-  <si>
     <t>INV015</t>
   </si>
   <si>
@@ -435,19 +432,13 @@
     <t>Elder Wand Replica</t>
   </si>
   <si>
-    <t>Forbidden Forest, Hogwarts Grounds, Scotland</t>
-  </si>
-  <si>
     <t>Parseltongue Dictionary</t>
   </si>
   <si>
-    <t>Little Hangleton Graveyard, England</t>
-  </si>
-  <si>
     <t>Nagini Care Kit</t>
   </si>
   <si>
-    <t>Dark Forest Cavern, Albania</t>
+    <t>Shipping Charges</t>
   </si>
 </sst>
 </file>
@@ -796,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,7 +806,7 @@
     <col min="10" max="11" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -849,8 +840,11 @@
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -884,8 +878,11 @@
       <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -919,8 +916,11 @@
       <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -954,8 +954,11 @@
       <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -989,8 +992,11 @@
       <c r="K5" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1024,8 +1030,11 @@
       <c r="K6" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1059,8 +1068,11 @@
       <c r="K7" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1094,8 +1106,11 @@
       <c r="K8" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1129,8 +1144,11 @@
       <c r="K9" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1164,8 +1182,11 @@
       <c r="K10" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -1199,8 +1220,11 @@
       <c r="K11" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -1234,8 +1258,11 @@
       <c r="K12" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1269,8 +1296,11 @@
       <c r="K13" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1304,8 +1334,11 @@
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -1339,8 +1372,11 @@
       <c r="K15" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -1374,8 +1410,11 @@
       <c r="K16" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1409,8 +1448,11 @@
       <c r="K17" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1444,8 +1486,11 @@
       <c r="K18" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
@@ -1479,8 +1524,11 @@
       <c r="K19" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
@@ -1514,8 +1562,11 @@
       <c r="K20" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>71</v>
       </c>
@@ -1549,8 +1600,11 @@
       <c r="K21" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>71</v>
       </c>
@@ -1584,8 +1638,11 @@
       <c r="K22" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>78</v>
       </c>
@@ -1619,8 +1676,11 @@
       <c r="K23" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>78</v>
       </c>
@@ -1654,8 +1714,11 @@
       <c r="K24" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>86</v>
       </c>
@@ -1689,8 +1752,11 @@
       <c r="K25" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>86</v>
       </c>
@@ -1722,18 +1788,21 @@
         <v>15</v>
       </c>
       <c r="K26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D27" s="5">
         <v>45787</v>
@@ -1742,7 +1811,7 @@
         <v>45818</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -1751,24 +1820,27 @@
         <v>1000</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D28" s="5">
         <v>45788</v>
@@ -1777,7 +1849,7 @@
         <v>45819</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G28" s="3">
         <v>7</v>
@@ -1789,21 +1861,24 @@
         <v>14</v>
       </c>
       <c r="J28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D29" s="5">
         <v>45789</v>
@@ -1812,7 +1887,7 @@
         <v>45820</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
@@ -1821,24 +1896,27 @@
         <v>500</v>
       </c>
       <c r="I29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D30" s="5">
         <v>45789</v>
@@ -1847,7 +1925,7 @@
         <v>45820</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G30" s="3">
         <v>5</v>
@@ -1856,24 +1934,27 @@
         <v>50</v>
       </c>
       <c r="I30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D31" s="5">
         <v>45790</v>
@@ -1882,7 +1963,7 @@
         <v>45821</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G31" s="3">
         <v>10</v>
@@ -1894,21 +1975,24 @@
         <v>17</v>
       </c>
       <c r="J31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D32" s="5">
         <v>45790</v>
@@ -1917,7 +2001,7 @@
         <v>45821</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G32" s="3">
         <v>6</v>
@@ -1926,24 +2010,27 @@
         <v>60</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D33" s="5">
         <v>45791</v>
@@ -1952,7 +2039,7 @@
         <v>45822</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -1961,24 +2048,27 @@
         <v>1000</v>
       </c>
       <c r="I33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D34" s="5">
         <v>45791</v>
@@ -1987,7 +2077,7 @@
         <v>45822</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G34" s="3">
         <v>2</v>
@@ -1996,24 +2086,27 @@
         <v>800</v>
       </c>
       <c r="I34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D35" s="5">
         <v>45791</v>
@@ -2022,7 +2115,7 @@
         <v>45822</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G35" s="3">
         <v>5</v>
@@ -2031,24 +2124,27 @@
         <v>300</v>
       </c>
       <c r="I35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D36" s="5">
         <v>45791</v>
@@ -2057,7 +2153,7 @@
         <v>45822</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -2066,24 +2162,27 @@
         <v>1500</v>
       </c>
       <c r="I36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D37" s="5">
         <v>45791</v>
@@ -2092,7 +2191,7 @@
         <v>45822</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G37" s="3">
         <v>3</v>
@@ -2101,24 +2200,27 @@
         <v>120</v>
       </c>
       <c r="I37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D38" s="5">
         <v>45791</v>
@@ -2127,7 +2229,7 @@
         <v>45822</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G38" s="3">
         <v>2</v>
@@ -2136,13 +2238,16 @@
         <v>250</v>
       </c>
       <c r="I38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>140</v>
+      <c r="L38">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
